--- a/SubRES_TMPL/SubRES_SYS_OtherNewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SYS_OtherNewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFF1AFE-FAAE-44A1-AB69-CCE3BA940936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36338BDC-C2C4-47A0-9D7E-EB7799F5A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -1986,9 +1986,6 @@
     <t>Curr</t>
   </si>
   <si>
-    <t>EUR20</t>
-  </si>
-  <si>
     <t>Import green H2 gaseous</t>
   </si>
   <si>
@@ -2053,6 +2050,9 @@
   </si>
   <si>
     <t>*CO2*, -*CO2S</t>
+  </si>
+  <si>
+    <t>MEUR2020</t>
   </si>
 </sst>
 </file>
@@ -3156,25 +3156,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="17" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="17" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="17" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="17" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="17" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="10" style="17" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="17"/>
+    <col min="14" max="14" width="11.3984375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="17" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3202,7 +3202,7 @@
       <c r="Y1" s="16"/>
       <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -3230,7 +3230,7 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -3258,7 +3258,7 @@
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -3286,7 +3286,7 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3314,7 +3314,7 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3342,7 +3342,7 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -3370,7 +3370,7 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3398,7 +3398,7 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3426,7 +3426,7 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3454,7 +3454,7 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3482,7 +3482,7 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3510,7 +3510,7 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -3538,7 +3538,7 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -3566,7 +3566,7 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -3594,9 +3594,9 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3624,7 +3624,7 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3652,7 +3652,7 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3680,12 +3680,12 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -3712,12 +3712,12 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -3744,12 +3744,12 @@
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3776,7 +3776,7 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="23"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3804,12 +3804,12 @@
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -3836,10 +3836,10 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3866,10 +3866,10 @@
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3896,12 +3896,12 @@
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -3928,7 +3928,7 @@
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3956,7 +3956,7 @@
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -3984,9 +3984,9 @@
       <c r="Y28" s="16"/>
       <c r="Z28" s="16"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="27">
         <v>1</v>
@@ -4016,12 +4016,12 @@
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>95</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -4048,12 +4048,12 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -4080,10 +4080,10 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="29"/>
       <c r="B32" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -4110,7 +4110,7 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -4138,7 +4138,7 @@
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -4166,7 +4166,7 @@
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -4194,7 +4194,7 @@
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -4222,7 +4222,7 @@
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -4250,7 +4250,7 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -4278,7 +4278,7 @@
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -4306,7 +4306,7 @@
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4334,7 +4334,7 @@
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4362,7 +4362,7 @@
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4390,7 +4390,7 @@
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -4418,7 +4418,7 @@
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -4446,7 +4446,7 @@
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -4474,7 +4474,7 @@
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -4502,7 +4502,7 @@
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -4530,7 +4530,7 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4558,7 +4558,7 @@
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4586,7 +4586,7 @@
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -4614,7 +4614,7 @@
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -4642,7 +4642,7 @@
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -4670,7 +4670,7 @@
       <c r="Y52" s="16"/>
       <c r="Z52" s="16"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -4698,7 +4698,7 @@
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -4726,7 +4726,7 @@
       <c r="Y54" s="16"/>
       <c r="Z54" s="16"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -4754,7 +4754,7 @@
       <c r="Y55" s="16"/>
       <c r="Z55" s="16"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4782,7 +4782,7 @@
       <c r="Y56" s="16"/>
       <c r="Z56" s="16"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4810,7 +4810,7 @@
       <c r="Y57" s="16"/>
       <c r="Z57" s="16"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4838,7 +4838,7 @@
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4866,7 +4866,7 @@
       <c r="Y59" s="16"/>
       <c r="Z59" s="16"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -4894,7 +4894,7 @@
       <c r="Y60" s="16"/>
       <c r="Z60" s="16"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -4922,7 +4922,7 @@
       <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -4950,7 +4950,7 @@
       <c r="Y62" s="16"/>
       <c r="Z62" s="16"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -4978,7 +4978,7 @@
       <c r="Y63" s="16"/>
       <c r="Z63" s="16"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5006,7 +5006,7 @@
       <c r="Y64" s="16"/>
       <c r="Z64" s="16"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5034,7 +5034,7 @@
       <c r="Y65" s="16"/>
       <c r="Z65" s="16"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5062,7 +5062,7 @@
       <c r="Y66" s="16"/>
       <c r="Z66" s="16"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5090,7 +5090,7 @@
       <c r="Y67" s="16"/>
       <c r="Z67" s="16"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5118,7 +5118,7 @@
       <c r="Y68" s="16"/>
       <c r="Z68" s="16"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5146,7 +5146,7 @@
       <c r="Y69" s="16"/>
       <c r="Z69" s="16"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5174,7 +5174,7 @@
       <c r="Y70" s="16"/>
       <c r="Z70" s="16"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5202,7 +5202,7 @@
       <c r="Y71" s="16"/>
       <c r="Z71" s="16"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5230,7 +5230,7 @@
       <c r="Y72" s="16"/>
       <c r="Z72" s="16"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5258,7 +5258,7 @@
       <c r="Y73" s="16"/>
       <c r="Z73" s="16"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5286,7 +5286,7 @@
       <c r="Y74" s="16"/>
       <c r="Z74" s="16"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5314,7 +5314,7 @@
       <c r="Y75" s="16"/>
       <c r="Z75" s="16"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5342,7 +5342,7 @@
       <c r="Y76" s="16"/>
       <c r="Z76" s="16"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5370,7 +5370,7 @@
       <c r="Y77" s="16"/>
       <c r="Z77" s="16"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5398,7 +5398,7 @@
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5426,7 +5426,7 @@
       <c r="Y79" s="16"/>
       <c r="Z79" s="16"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5454,7 +5454,7 @@
       <c r="Y80" s="16"/>
       <c r="Z80" s="16"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5482,7 +5482,7 @@
       <c r="Y81" s="16"/>
       <c r="Z81" s="16"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5510,7 +5510,7 @@
       <c r="Y82" s="16"/>
       <c r="Z82" s="16"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5538,7 +5538,7 @@
       <c r="Y83" s="16"/>
       <c r="Z83" s="16"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5566,7 +5566,7 @@
       <c r="Y84" s="16"/>
       <c r="Z84" s="16"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5594,7 +5594,7 @@
       <c r="Y85" s="16"/>
       <c r="Z85" s="16"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5622,7 +5622,7 @@
       <c r="Y86" s="16"/>
       <c r="Z86" s="16"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5650,7 +5650,7 @@
       <c r="Y87" s="16"/>
       <c r="Z87" s="16"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5678,7 +5678,7 @@
       <c r="Y88" s="16"/>
       <c r="Z88" s="16"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5706,7 +5706,7 @@
       <c r="Y89" s="16"/>
       <c r="Z89" s="16"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5734,7 +5734,7 @@
       <c r="Y90" s="16"/>
       <c r="Z90" s="16"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5762,7 +5762,7 @@
       <c r="Y91" s="16"/>
       <c r="Z91" s="16"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5790,7 +5790,7 @@
       <c r="Y92" s="16"/>
       <c r="Z92" s="16"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5818,7 +5818,7 @@
       <c r="Y93" s="16"/>
       <c r="Z93" s="16"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5846,7 +5846,7 @@
       <c r="Y94" s="16"/>
       <c r="Z94" s="16"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5874,7 +5874,7 @@
       <c r="Y95" s="16"/>
       <c r="Z95" s="16"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5902,7 +5902,7 @@
       <c r="Y96" s="16"/>
       <c r="Z96" s="16"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5930,7 +5930,7 @@
       <c r="Y97" s="16"/>
       <c r="Z97" s="16"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5958,7 +5958,7 @@
       <c r="Y98" s="16"/>
       <c r="Z98" s="16"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -6011,35 +6011,35 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="2" width="40.73046875" customWidth="1"/>
+    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.3984375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
+    <col min="12" max="13" width="13.1328125" customWidth="1"/>
+    <col min="14" max="14" width="9.86328125" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" customWidth="1"/>
+    <col min="16" max="16" width="11.265625" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="18" max="18" width="14.59765625" customWidth="1"/>
+    <col min="19" max="19" width="13.1328125" customWidth="1"/>
+    <col min="20" max="20" width="13.86328125" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>67</v>
       </c>
@@ -6052,7 +6052,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:24" s="2" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" s="2" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f>C18</f>
         <v>SCO2DACS</v>
@@ -6179,7 +6179,7 @@
         <v>CO2 Backstop process</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -6188,7 +6188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6200,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6262,13 +6262,13 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
@@ -6320,15 +6320,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>68</v>
@@ -6340,7 +6340,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
@@ -6353,7 +6353,7 @@
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -6367,7 +6367,7 @@
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
@@ -6380,7 +6380,7 @@
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -6393,7 +6393,7 @@
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -6407,7 +6407,7 @@
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -6421,7 +6421,7 @@
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -6435,7 +6435,7 @@
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -6449,7 +6449,7 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -6463,7 +6463,7 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
@@ -6477,7 +6477,7 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
       <c r="I32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -6491,7 +6491,7 @@
       <c r="W32" s="14"/>
       <c r="X32" s="14"/>
     </row>
-    <row r="33" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
@@ -6505,7 +6505,7 @@
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
     </row>
-    <row r="34" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
@@ -6519,7 +6519,7 @@
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
     </row>
-    <row r="35" spans="9:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -6548,27 +6548,27 @@
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.73046875" customWidth="1"/>
+    <col min="11" max="11" width="14.1328125" customWidth="1"/>
+    <col min="12" max="12" width="13.265625" customWidth="1"/>
+    <col min="15" max="15" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
         <v>67</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:18" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" ht="26.25" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f>C18</f>
         <v>IMPH2G</v>
@@ -6706,7 +6706,7 @@
         <v>2030</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="I4">
         <v>2025</v>
@@ -6719,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>72</v>
       </c>
@@ -6730,14 +6730,14 @@
         <v>2050</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="K5">
         <f>6*2</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6811,13 +6811,13 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
         <v>78</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>74</v>

--- a/SubRES_TMPL/SubRES_SYS_OtherNewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_SYS_OtherNewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36338BDC-C2C4-47A0-9D7E-EB7799F5A5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3787F6-9A9C-46C3-A80F-A2A9712881B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15390" windowHeight="9443" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -137,53 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This attribute is used for Combined Heat and Power Technologies
-By defautt is defined like fixed share  </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>FX</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">.
-If you want upper or lower add
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>~UP
- ~LO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -454,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -540,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -633,7 +587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -696,7 +650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1689,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="107">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1878,15 +1832,6 @@
     <t>Output Commodity</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
     <t>VAROM</t>
   </si>
   <si>
@@ -1896,15 +1841,6 @@
     <t>Efficiency</t>
   </si>
   <si>
-    <t>Fuel input level</t>
-  </si>
-  <si>
-    <t>Fuel Output level</t>
-  </si>
-  <si>
-    <t>Annual Availability Factor</t>
-  </si>
-  <si>
     <t>Lifetime of Process</t>
   </si>
   <si>
@@ -2049,10 +1985,31 @@
     <t>Specify hydrogen import and DACS (backstop) technology</t>
   </si>
   <si>
-    <t>*CO2*, -*CO2S</t>
-  </si>
-  <si>
     <t>MEUR2020</t>
+  </si>
+  <si>
+    <t>AGRCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2P</t>
+  </si>
+  <si>
+    <t>PWRCO2N</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>SRVCO2N</t>
+  </si>
+  <si>
+    <t>SUPCO2N</t>
+  </si>
+  <si>
+    <t>TRACO2N</t>
   </si>
 </sst>
 </file>
@@ -3156,7 +3113,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3596,7 +3553,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -3682,10 +3639,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -3714,10 +3671,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -3746,10 +3703,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -3806,10 +3763,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -3839,7 +3796,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
@@ -3869,7 +3826,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
@@ -3898,10 +3855,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -3986,7 +3943,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B29" s="27">
         <v>1</v>
@@ -4018,10 +3975,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -4050,10 +4007,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -4083,7 +4040,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="29"/>
       <c r="B32" s="30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -6009,55 +5966,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:X35"/>
+  <dimension ref="B1:R40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" customWidth="1"/>
-    <col min="3" max="3" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.86328125" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="13" width="13.1328125" customWidth="1"/>
-    <col min="14" max="14" width="9.86328125" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" customWidth="1"/>
-    <col min="16" max="16" width="11.265625" customWidth="1"/>
-    <col min="17" max="17" width="12.59765625" customWidth="1"/>
-    <col min="18" max="18" width="14.59765625" customWidth="1"/>
-    <col min="19" max="19" width="13.1328125" customWidth="1"/>
-    <col min="20" max="20" width="13.86328125" customWidth="1"/>
-    <col min="21" max="21" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" customWidth="1"/>
+    <col min="11" max="11" width="13.1328125" customWidth="1"/>
+    <col min="12" max="12" width="11.265625" customWidth="1"/>
+    <col min="13" max="13" width="12.59765625" customWidth="1"/>
+    <col min="14" max="14" width="13.86328125" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="2:24" ht="13.15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:16" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
@@ -6071,44 +6018,20 @@
       <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="H2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" s="2" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:16" s="2" customFormat="1" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>42</v>
       </c>
@@ -6128,410 +6051,378 @@
         <v>46</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="11" t="s">
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" t="str">
+        <f>C23</f>
+        <v>SCO2DACS</v>
+      </c>
+      <c r="C4" t="str">
+        <f>D23</f>
+        <v>CO2 Backstop process</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="20" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="str">
-        <f>C18</f>
-        <v>SCO2DACS</v>
-      </c>
-      <c r="C4" t="str">
-        <f>D18</f>
-        <v>CO2 Backstop process</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="25.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="15" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="2:24" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" ht="38.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="I26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="I27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="F23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="I28" s="14"/>
-      <c r="M28" s="14"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="I29" s="14"/>
-      <c r="M29" s="14"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="I30" s="14"/>
-      <c r="M30" s="14"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="I32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-    </row>
-    <row r="33" spans="9:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="9:18" x14ac:dyDescent="0.35">
       <c r="I33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-    </row>
-    <row r="34" spans="9:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="9:18" x14ac:dyDescent="0.35">
       <c r="I34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-    </row>
-    <row r="35" spans="9:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="9:18" x14ac:dyDescent="0.35">
       <c r="I35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
+    </row>
+    <row r="36" spans="9:18" x14ac:dyDescent="0.35">
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="9:18" x14ac:dyDescent="0.35">
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="9:18" x14ac:dyDescent="0.35">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="9:18" x14ac:dyDescent="0.35">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+    </row>
+    <row r="40" spans="9:18" x14ac:dyDescent="0.35">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6570,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1"/>
       <c r="H1" s="3" t="s">
@@ -6584,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>3</v>
@@ -6593,13 +6484,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>17</v>
@@ -6608,28 +6499,28 @@
         <v>19</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="64.150000000000006" thickBot="1" x14ac:dyDescent="0.4">
@@ -6650,37 +6541,37 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
@@ -6697,16 +6588,16 @@
         <v/>
       </c>
       <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
       </c>
       <c r="G4">
         <v>2030</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I4">
         <v>2025</v>
@@ -6721,16 +6612,16 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
       </c>
       <c r="G5">
         <v>2050</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <f>6*2</f>
@@ -6871,19 +6762,19 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
